--- a/xlsx/acm-code_clone|detection-abstract.xlsx
+++ b/xlsx/acm-code_clone|detection-abstract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flicker_soul/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flicker_soul/Documents/Developer/COMP_RESEARCH/quantitative_assessment/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{232BC021-45F2-154D-9694-AEBA9C6292EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8190029C-D8BF-9E4C-B9DA-0DB69E8D0662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acm-code_clone|detection-abstra" sheetId="1" r:id="rId1"/>
@@ -3427,8 +3427,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3559,6 +3559,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3905,19 +3912,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -4273,26 +4281,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CL98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="4"/>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="45.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
-    <col min="7" max="7" width="31.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="87.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="31.1640625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="3"/>
+    <col min="10" max="10" width="17.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.83203125" style="3"/>
+    <col min="15" max="15" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="3"/>
+    <col min="19" max="19" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="3"/>
+    <col min="21" max="22" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:90" ht="100" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>1133</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4557,7 +4575,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:90" ht="187" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:90" ht="400" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>95</v>
       </c>
@@ -4592,10 +4613,10 @@
       <c r="O2" s="2">
         <v>2010</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="4">
         <v>45218.528379629628</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="4">
         <v>45218.528379629628</v>
       </c>
       <c r="R2" s="2"/>
@@ -4684,7 +4705,10 @@
       <c r="CK2" s="2"/>
       <c r="CL2" s="2"/>
     </row>
-    <row r="3" spans="1:90" ht="340" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>110</v>
       </c>
@@ -4719,10 +4743,10 @@
       <c r="O3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="4">
         <v>45218.528379629628</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="4">
         <v>45218.528379629628</v>
       </c>
       <c r="R3" s="2"/>
@@ -4809,7 +4833,10 @@
       <c r="CK3" s="2"/>
       <c r="CL3" s="2"/>
     </row>
-    <row r="4" spans="1:90" ht="170" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:90" ht="350" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>122</v>
       </c>
@@ -4844,10 +4871,10 @@
       <c r="O4" s="2">
         <v>2008</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="4">
         <v>45218.528379629628</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="4">
         <v>45218.528379629628</v>
       </c>
       <c r="R4" s="2"/>
@@ -4936,7 +4963,10 @@
       <c r="CK4" s="2"/>
       <c r="CL4" s="2"/>
     </row>
-    <row r="5" spans="1:90" ht="153" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:90" ht="325" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>134</v>
       </c>
@@ -4971,10 +5001,10 @@
       <c r="O5" s="2">
         <v>2007</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="4">
         <v>45218.528379629628</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="4">
         <v>45218.528379629628</v>
       </c>
       <c r="R5" s="2"/>
@@ -5061,7 +5091,10 @@
       <c r="CK5" s="2"/>
       <c r="CL5" s="2"/>
     </row>
-    <row r="6" spans="1:90" ht="170" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:90" ht="375" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>144</v>
       </c>
@@ -5092,10 +5125,10 @@
       <c r="O6" s="2">
         <v>2012</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R6" s="2"/>
@@ -5180,7 +5213,10 @@
       <c r="CK6" s="2"/>
       <c r="CL6" s="2"/>
     </row>
-    <row r="7" spans="1:90" ht="404" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>156</v>
       </c>
@@ -5215,10 +5251,10 @@
       <c r="O7" s="2">
         <v>2019</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R7" s="2"/>
@@ -5307,7 +5343,10 @@
       <c r="CK7" s="2"/>
       <c r="CL7" s="2"/>
     </row>
-    <row r="8" spans="1:90" ht="372" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>168</v>
       </c>
@@ -5342,10 +5381,10 @@
       <c r="O8" s="2">
         <v>2023</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R8" s="2"/>
@@ -5432,7 +5471,10 @@
       <c r="CK8" s="2"/>
       <c r="CL8" s="2"/>
     </row>
-    <row r="9" spans="1:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>178</v>
       </c>
@@ -5467,10 +5509,10 @@
       <c r="O9" s="2">
         <v>2023</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R9" s="2"/>
@@ -5559,7 +5601,10 @@
       <c r="CK9" s="2"/>
       <c r="CL9" s="2"/>
     </row>
-    <row r="10" spans="1:90" ht="388" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>190</v>
       </c>
@@ -5594,10 +5639,10 @@
       <c r="O10" s="2">
         <v>2022</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R10" s="2"/>
@@ -5686,7 +5731,10 @@
       <c r="CK10" s="2"/>
       <c r="CL10" s="2"/>
     </row>
-    <row r="11" spans="1:90" ht="356" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>202</v>
       </c>
@@ -5721,10 +5769,10 @@
       <c r="O11" s="2">
         <v>2018</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R11" s="2"/>
@@ -5813,7 +5861,10 @@
       <c r="CK11" s="2"/>
       <c r="CL11" s="2"/>
     </row>
-    <row r="12" spans="1:90" ht="238" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>214</v>
       </c>
@@ -5848,10 +5899,10 @@
       <c r="O12" s="2">
         <v>2022</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R12" s="2"/>
@@ -5938,7 +5989,10 @@
       <c r="CK12" s="2"/>
       <c r="CL12" s="2"/>
     </row>
-    <row r="13" spans="1:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>223</v>
       </c>
@@ -5973,10 +6027,10 @@
       <c r="O13" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R13" s="2"/>
@@ -6063,7 +6117,10 @@
       <c r="CK13" s="2"/>
       <c r="CL13" s="2"/>
     </row>
-    <row r="14" spans="1:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>233</v>
       </c>
@@ -6098,10 +6155,10 @@
       <c r="O14" s="2">
         <v>2023</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R14" s="2"/>
@@ -6186,7 +6243,10 @@
       <c r="CK14" s="2"/>
       <c r="CL14" s="2"/>
     </row>
-    <row r="15" spans="1:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
       <c r="B15" s="2" t="s">
         <v>242</v>
       </c>
@@ -6221,10 +6281,10 @@
       <c r="O15" s="2">
         <v>2014</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R15" s="2"/>
@@ -6313,7 +6373,10 @@
       <c r="CK15" s="2"/>
       <c r="CL15" s="2"/>
     </row>
-    <row r="16" spans="1:90" ht="388" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>254</v>
       </c>
@@ -6348,10 +6411,10 @@
       <c r="O16" s="2">
         <v>2022</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R16" s="2"/>
@@ -6440,7 +6503,10 @@
       <c r="CK16" s="2"/>
       <c r="CL16" s="2"/>
     </row>
-    <row r="17" spans="2:90" ht="323" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>266</v>
       </c>
@@ -6475,10 +6541,10 @@
       <c r="O17" s="2">
         <v>2010</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R17" s="2"/>
@@ -6567,7 +6633,10 @@
       <c r="CK17" s="2"/>
       <c r="CL17" s="2"/>
     </row>
-    <row r="18" spans="2:90" ht="204" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
       <c r="B18" s="2" t="s">
         <v>276</v>
       </c>
@@ -6602,10 +6671,10 @@
       <c r="O18" s="2">
         <v>2023</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R18" s="2"/>
@@ -6692,7 +6761,10 @@
       <c r="CK18" s="2"/>
       <c r="CL18" s="2"/>
     </row>
-    <row r="19" spans="2:90" ht="404" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
       <c r="B19" s="2" t="s">
         <v>286</v>
       </c>
@@ -6727,10 +6799,10 @@
       <c r="O19" s="2">
         <v>2019</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R19" s="2"/>
@@ -6819,7 +6891,10 @@
       <c r="CK19" s="2"/>
       <c r="CL19" s="2"/>
     </row>
-    <row r="20" spans="2:90" ht="238" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
       <c r="B20" s="2" t="s">
         <v>298</v>
       </c>
@@ -6854,10 +6929,10 @@
       <c r="O20" s="2">
         <v>2011</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R20" s="2"/>
@@ -6946,7 +7021,10 @@
       <c r="CK20" s="2"/>
       <c r="CL20" s="2"/>
     </row>
-    <row r="21" spans="2:90" ht="404" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
       <c r="B21" s="2" t="s">
         <v>310</v>
       </c>
@@ -6981,10 +7059,10 @@
       <c r="O21" s="2">
         <v>2015</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R21" s="2"/>
@@ -7073,7 +7151,10 @@
       <c r="CK21" s="2"/>
       <c r="CL21" s="2"/>
     </row>
-    <row r="22" spans="2:90" ht="238" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>3</v>
+      </c>
       <c r="B22" s="2" t="s">
         <v>322</v>
       </c>
@@ -7108,10 +7189,10 @@
       <c r="O22" s="2">
         <v>2014</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R22" s="2"/>
@@ -7200,7 +7281,10 @@
       <c r="CK22" s="2"/>
       <c r="CL22" s="2"/>
     </row>
-    <row r="23" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
       <c r="B23" s="2" t="s">
         <v>334</v>
       </c>
@@ -7235,10 +7319,10 @@
       <c r="O23" s="2">
         <v>2017</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R23" s="2"/>
@@ -7325,7 +7409,7 @@
       <c r="CK23" s="2"/>
       <c r="CL23" s="2"/>
     </row>
-    <row r="24" spans="2:90" ht="306" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>345</v>
       </c>
@@ -7360,10 +7444,10 @@
       <c r="O24" s="2">
         <v>2023</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R24" s="2"/>
@@ -7450,7 +7534,7 @@
       <c r="CK24" s="2"/>
       <c r="CL24" s="2"/>
     </row>
-    <row r="25" spans="2:90" ht="289" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>356</v>
       </c>
@@ -7485,10 +7569,10 @@
       <c r="O25" s="2">
         <v>2019</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R25" s="2"/>
@@ -7577,7 +7661,7 @@
       <c r="CK25" s="2"/>
       <c r="CL25" s="2"/>
     </row>
-    <row r="26" spans="2:90" ht="356" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>366</v>
       </c>
@@ -7608,10 +7692,10 @@
       <c r="O26" s="2">
         <v>2013</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R26" s="2"/>
@@ -7698,7 +7782,7 @@
       <c r="CK26" s="2"/>
       <c r="CL26" s="2"/>
     </row>
-    <row r="27" spans="2:90" ht="340" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>376</v>
       </c>
@@ -7733,10 +7817,10 @@
       <c r="O27" s="2">
         <v>2011</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R27" s="2"/>
@@ -7825,7 +7909,7 @@
       <c r="CK27" s="2"/>
       <c r="CL27" s="2"/>
     </row>
-    <row r="28" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>387</v>
       </c>
@@ -7860,10 +7944,10 @@
       <c r="O28" s="2">
         <v>2020</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="Q28" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R28" s="2"/>
@@ -7952,7 +8036,7 @@
       <c r="CK28" s="2"/>
       <c r="CL28" s="2"/>
     </row>
-    <row r="29" spans="2:90" ht="372" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>397</v>
       </c>
@@ -7987,10 +8071,10 @@
       <c r="O29" s="2">
         <v>2010</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R29" s="2"/>
@@ -8079,7 +8163,7 @@
       <c r="CK29" s="2"/>
       <c r="CL29" s="2"/>
     </row>
-    <row r="30" spans="2:90" ht="187" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:90" ht="400" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>406</v>
       </c>
@@ -8114,10 +8198,10 @@
       <c r="O30" s="2">
         <v>2011</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q30" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R30" s="2"/>
@@ -8206,7 +8290,7 @@
       <c r="CK30" s="2"/>
       <c r="CL30" s="2"/>
     </row>
-    <row r="31" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>417</v>
       </c>
@@ -8241,10 +8325,10 @@
       <c r="O31" s="2">
         <v>2016</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="Q31" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R31" s="2"/>
@@ -8333,7 +8417,7 @@
       <c r="CK31" s="2"/>
       <c r="CL31" s="2"/>
     </row>
-    <row r="32" spans="2:90" ht="187" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:90" ht="400" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>429</v>
       </c>
@@ -8368,10 +8452,10 @@
       <c r="O32" s="2">
         <v>2008</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R32" s="2"/>
@@ -8458,7 +8542,7 @@
       <c r="CK32" s="2"/>
       <c r="CL32" s="2"/>
     </row>
-    <row r="33" spans="2:90" ht="204" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>440</v>
       </c>
@@ -8493,10 +8577,10 @@
       <c r="O33" s="2">
         <v>2010</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R33" s="2"/>
@@ -8585,7 +8669,7 @@
       <c r="CK33" s="2"/>
       <c r="CL33" s="2"/>
     </row>
-    <row r="34" spans="2:90" ht="238" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>452</v>
       </c>
@@ -8620,10 +8704,10 @@
       <c r="O34" s="2">
         <v>2016</v>
       </c>
-      <c r="P34" s="3">
+      <c r="P34" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="Q34" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R34" s="2"/>
@@ -8710,7 +8794,7 @@
       <c r="CK34" s="2"/>
       <c r="CL34" s="2"/>
     </row>
-    <row r="35" spans="2:90" ht="238" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>463</v>
       </c>
@@ -8745,10 +8829,10 @@
       <c r="O35" s="2">
         <v>2017</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R35" s="2"/>
@@ -8833,7 +8917,7 @@
       <c r="CK35" s="2"/>
       <c r="CL35" s="2"/>
     </row>
-    <row r="36" spans="2:90" ht="238" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>470</v>
       </c>
@@ -8864,10 +8948,10 @@
       <c r="O36" s="2">
         <v>2012</v>
       </c>
-      <c r="P36" s="3">
+      <c r="P36" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="Q36" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R36" s="2"/>
@@ -8952,7 +9036,7 @@
       <c r="CK36" s="2"/>
       <c r="CL36" s="2"/>
     </row>
-    <row r="37" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>480</v>
       </c>
@@ -8987,10 +9071,10 @@
       <c r="O37" s="2">
         <v>2020</v>
       </c>
-      <c r="P37" s="3">
+      <c r="P37" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="Q37" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R37" s="2"/>
@@ -9077,7 +9161,7 @@
       <c r="CK37" s="2"/>
       <c r="CL37" s="2"/>
     </row>
-    <row r="38" spans="2:90" ht="238" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>491</v>
       </c>
@@ -9112,10 +9196,10 @@
       <c r="O38" s="2">
         <v>2012</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P38" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="Q38" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R38" s="2"/>
@@ -9204,7 +9288,7 @@
       <c r="CK38" s="2"/>
       <c r="CL38" s="2"/>
     </row>
-    <row r="39" spans="2:90" ht="255" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>501</v>
       </c>
@@ -9239,10 +9323,10 @@
       <c r="O39" s="2">
         <v>2008</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P39" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="Q39" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R39" s="2"/>
@@ -9331,7 +9415,7 @@
       <c r="CK39" s="2"/>
       <c r="CL39" s="2"/>
     </row>
-    <row r="40" spans="2:90" ht="255" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>512</v>
       </c>
@@ -9366,10 +9450,10 @@
       <c r="O40" s="2">
         <v>2012</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P40" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="Q40" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R40" s="2"/>
@@ -9458,7 +9542,7 @@
       <c r="CK40" s="2"/>
       <c r="CL40" s="2"/>
     </row>
-    <row r="41" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>522</v>
       </c>
@@ -9493,10 +9577,10 @@
       <c r="O41" s="2">
         <v>2022</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R41" s="2"/>
@@ -9585,7 +9669,7 @@
       <c r="CK41" s="2"/>
       <c r="CL41" s="2"/>
     </row>
-    <row r="42" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>533</v>
       </c>
@@ -9620,10 +9704,10 @@
       <c r="O42" s="2">
         <v>2021</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R42" s="2"/>
@@ -9712,7 +9796,7 @@
       <c r="CK42" s="2"/>
       <c r="CL42" s="2"/>
     </row>
-    <row r="43" spans="2:90" ht="306" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>545</v>
       </c>
@@ -9747,10 +9831,10 @@
       <c r="O43" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R43" s="2"/>
@@ -9837,7 +9921,7 @@
       <c r="CK43" s="2"/>
       <c r="CL43" s="2"/>
     </row>
-    <row r="44" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>557</v>
       </c>
@@ -9872,10 +9956,10 @@
       <c r="O44" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R44" s="2"/>
@@ -9960,7 +10044,7 @@
       <c r="CK44" s="2"/>
       <c r="CL44" s="2"/>
     </row>
-    <row r="45" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>568</v>
       </c>
@@ -9995,10 +10079,10 @@
       <c r="O45" s="2">
         <v>2023</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R45" s="2"/>
@@ -10085,7 +10169,7 @@
       <c r="CK45" s="2"/>
       <c r="CL45" s="2"/>
     </row>
-    <row r="46" spans="2:90" ht="289" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>580</v>
       </c>
@@ -10120,10 +10204,10 @@
       <c r="O46" s="2">
         <v>2010</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R46" s="2"/>
@@ -10212,7 +10296,7 @@
       <c r="CK46" s="2"/>
       <c r="CL46" s="2"/>
     </row>
-    <row r="47" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
         <v>590</v>
       </c>
@@ -10247,10 +10331,10 @@
       <c r="O47" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R47" s="2"/>
@@ -10335,7 +10419,7 @@
       <c r="CK47" s="2"/>
       <c r="CL47" s="2"/>
     </row>
-    <row r="48" spans="2:90" ht="306" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>600</v>
       </c>
@@ -10370,10 +10454,10 @@
       <c r="O48" s="2">
         <v>2018</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R48" s="2"/>
@@ -10462,7 +10546,7 @@
       <c r="CK48" s="2"/>
       <c r="CL48" s="2"/>
     </row>
-    <row r="49" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>610</v>
       </c>
@@ -10497,10 +10581,10 @@
       <c r="O49" s="2">
         <v>2023</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R49" s="2"/>
@@ -10589,7 +10673,7 @@
       <c r="CK49" s="2"/>
       <c r="CL49" s="2"/>
     </row>
-    <row r="50" spans="2:90" ht="306" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
         <v>619</v>
       </c>
@@ -10624,10 +10708,10 @@
       <c r="O50" s="2">
         <v>2010</v>
       </c>
-      <c r="P50" s="3">
+      <c r="P50" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q50" s="3">
+      <c r="Q50" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R50" s="2"/>
@@ -10716,7 +10800,7 @@
       <c r="CK50" s="2"/>
       <c r="CL50" s="2"/>
     </row>
-    <row r="51" spans="2:90" ht="323" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
         <v>629</v>
       </c>
@@ -10751,10 +10835,10 @@
       <c r="O51" s="2">
         <v>2011</v>
       </c>
-      <c r="P51" s="3">
+      <c r="P51" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="Q51" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R51" s="2"/>
@@ -10843,7 +10927,7 @@
       <c r="CK51" s="2"/>
       <c r="CL51" s="2"/>
     </row>
-    <row r="52" spans="2:90" ht="323" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
         <v>641</v>
       </c>
@@ -10878,10 +10962,10 @@
       <c r="O52" s="2">
         <v>2019</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R52" s="2"/>
@@ -10970,7 +11054,7 @@
       <c r="CK52" s="2"/>
       <c r="CL52" s="2"/>
     </row>
-    <row r="53" spans="2:90" ht="323" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
         <v>653</v>
       </c>
@@ -11005,10 +11089,10 @@
       <c r="O53" s="2">
         <v>2008</v>
       </c>
-      <c r="P53" s="3">
+      <c r="P53" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q53" s="3">
+      <c r="Q53" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R53" s="2"/>
@@ -11097,7 +11181,7 @@
       <c r="CK53" s="2"/>
       <c r="CL53" s="2"/>
     </row>
-    <row r="54" spans="2:90" ht="323" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
         <v>665</v>
       </c>
@@ -11132,10 +11216,10 @@
       <c r="O54" s="2">
         <v>2010</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R54" s="2"/>
@@ -11220,7 +11304,7 @@
       <c r="CK54" s="2"/>
       <c r="CL54" s="2"/>
     </row>
-    <row r="55" spans="2:90" ht="323" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
         <v>675</v>
       </c>
@@ -11255,10 +11339,10 @@
       <c r="O55" s="2">
         <v>2020</v>
       </c>
-      <c r="P55" s="3">
+      <c r="P55" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q55" s="3">
+      <c r="Q55" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R55" s="2"/>
@@ -11343,7 +11427,7 @@
       <c r="CK55" s="2"/>
       <c r="CL55" s="2"/>
     </row>
-    <row r="56" spans="2:90" ht="323" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
         <v>686</v>
       </c>
@@ -11378,10 +11462,10 @@
       <c r="O56" s="2">
         <v>2017</v>
       </c>
-      <c r="P56" s="3">
+      <c r="P56" s="4">
         <v>45218.528391203705</v>
       </c>
-      <c r="Q56" s="3">
+      <c r="Q56" s="4">
         <v>45218.528391203705</v>
       </c>
       <c r="R56" s="2"/>
@@ -11470,7 +11554,7 @@
       <c r="CK56" s="2"/>
       <c r="CL56" s="2"/>
     </row>
-    <row r="57" spans="2:90" ht="372" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
         <v>698</v>
       </c>
@@ -11505,10 +11589,10 @@
       <c r="O57" s="2">
         <v>2009</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R57" s="2"/>
@@ -11595,7 +11679,7 @@
       <c r="CK57" s="2"/>
       <c r="CL57" s="2"/>
     </row>
-    <row r="58" spans="2:90" ht="356" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
         <v>707</v>
       </c>
@@ -11630,10 +11714,10 @@
       <c r="O58" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R58" s="2"/>
@@ -11718,7 +11802,7 @@
       <c r="CK58" s="2"/>
       <c r="CL58" s="2"/>
     </row>
-    <row r="59" spans="2:90" ht="372" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
         <v>716</v>
       </c>
@@ -11753,10 +11837,10 @@
       <c r="O59" s="2">
         <v>2023</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R59" s="2"/>
@@ -11845,7 +11929,7 @@
       <c r="CK59" s="2"/>
       <c r="CL59" s="2"/>
     </row>
-    <row r="60" spans="2:90" ht="356" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
         <v>726</v>
       </c>
@@ -11878,10 +11962,10 @@
       <c r="O60" s="2">
         <v>2019</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R60" s="2"/>
@@ -11968,7 +12052,7 @@
       <c r="CK60" s="2"/>
       <c r="CL60" s="2"/>
     </row>
-    <row r="61" spans="2:90" ht="356" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
         <v>738</v>
       </c>
@@ -12003,10 +12087,10 @@
       <c r="O61" s="2">
         <v>2014</v>
       </c>
-      <c r="P61" s="3">
+      <c r="P61" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="Q61" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R61" s="2"/>
@@ -12095,7 +12179,7 @@
       <c r="CK61" s="2"/>
       <c r="CL61" s="2"/>
     </row>
-    <row r="62" spans="2:90" ht="372" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
         <v>750</v>
       </c>
@@ -12130,10 +12214,10 @@
       <c r="O62" s="2">
         <v>2020</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R62" s="2"/>
@@ -12222,7 +12306,7 @@
       <c r="CK62" s="2"/>
       <c r="CL62" s="2"/>
     </row>
-    <row r="63" spans="2:90" ht="356" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
         <v>762</v>
       </c>
@@ -12257,10 +12341,10 @@
       <c r="O63" s="2">
         <v>2012</v>
       </c>
-      <c r="P63" s="3">
+      <c r="P63" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q63" s="3">
+      <c r="Q63" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R63" s="2"/>
@@ -12349,7 +12433,7 @@
       <c r="CK63" s="2"/>
       <c r="CL63" s="2"/>
     </row>
-    <row r="64" spans="2:90" ht="404" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
         <v>774</v>
       </c>
@@ -12384,10 +12468,10 @@
       <c r="O64" s="2">
         <v>2016</v>
       </c>
-      <c r="P64" s="3">
+      <c r="P64" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q64" s="3">
+      <c r="Q64" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R64" s="2"/>
@@ -12476,7 +12560,7 @@
       <c r="CK64" s="2"/>
       <c r="CL64" s="2"/>
     </row>
-    <row r="65" spans="2:90" ht="388" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
         <v>785</v>
       </c>
@@ -12509,10 +12593,10 @@
       <c r="O65" s="2">
         <v>2019</v>
       </c>
-      <c r="P65" s="3">
+      <c r="P65" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q65" s="3">
+      <c r="Q65" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R65" s="2"/>
@@ -12599,7 +12683,7 @@
       <c r="CK65" s="2"/>
       <c r="CL65" s="2"/>
     </row>
-    <row r="66" spans="2:90" ht="372" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>797</v>
       </c>
@@ -12634,10 +12718,10 @@
       <c r="O66" s="2">
         <v>2018</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R66" s="2"/>
@@ -12726,7 +12810,7 @@
       <c r="CK66" s="2"/>
       <c r="CL66" s="2"/>
     </row>
-    <row r="67" spans="2:90" ht="404" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>809</v>
       </c>
@@ -12761,10 +12845,10 @@
       <c r="O67" s="2">
         <v>2022</v>
       </c>
-      <c r="P67" s="3">
+      <c r="P67" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q67" s="3">
+      <c r="Q67" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R67" s="2"/>
@@ -12853,7 +12937,7 @@
       <c r="CK67" s="2"/>
       <c r="CL67" s="2"/>
     </row>
-    <row r="68" spans="2:90" ht="404" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
         <v>820</v>
       </c>
@@ -12888,10 +12972,10 @@
       <c r="O68" s="2">
         <v>2012</v>
       </c>
-      <c r="P68" s="3">
+      <c r="P68" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q68" s="3">
+      <c r="Q68" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R68" s="2"/>
@@ -12980,7 +13064,7 @@
       <c r="CK68" s="2"/>
       <c r="CL68" s="2"/>
     </row>
-    <row r="69" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B69" s="2" t="s">
         <v>830</v>
       </c>
@@ -13015,10 +13099,10 @@
       <c r="O69" s="2">
         <v>2021</v>
       </c>
-      <c r="P69" s="3">
+      <c r="P69" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q69" s="3">
+      <c r="Q69" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R69" s="2"/>
@@ -13107,7 +13191,7 @@
       <c r="CK69" s="2"/>
       <c r="CL69" s="2"/>
     </row>
-    <row r="70" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
         <v>840</v>
       </c>
@@ -13142,10 +13226,10 @@
       <c r="O70" s="2">
         <v>2023</v>
       </c>
-      <c r="P70" s="3">
+      <c r="P70" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="Q70" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R70" s="2"/>
@@ -13232,7 +13316,7 @@
       <c r="CK70" s="2"/>
       <c r="CL70" s="2"/>
     </row>
-    <row r="71" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B71" s="2" t="s">
         <v>849</v>
       </c>
@@ -13267,10 +13351,10 @@
       <c r="O71" s="2">
         <v>2023</v>
       </c>
-      <c r="P71" s="3">
+      <c r="P71" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q71" s="3">
+      <c r="Q71" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R71" s="2"/>
@@ -13355,7 +13439,7 @@
       <c r="CK71" s="2"/>
       <c r="CL71" s="2"/>
     </row>
-    <row r="72" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
         <v>857</v>
       </c>
@@ -13390,10 +13474,10 @@
       <c r="O72" s="2">
         <v>2022</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R72" s="2"/>
@@ -13482,7 +13566,7 @@
       <c r="CK72" s="2"/>
       <c r="CL72" s="2"/>
     </row>
-    <row r="73" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
         <v>865</v>
       </c>
@@ -13517,10 +13601,10 @@
       <c r="O73" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="P73" s="3">
+      <c r="P73" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q73" s="3">
+      <c r="Q73" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R73" s="2"/>
@@ -13605,7 +13689,7 @@
       <c r="CK73" s="2"/>
       <c r="CL73" s="2"/>
     </row>
-    <row r="74" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B74" s="2" t="s">
         <v>873</v>
       </c>
@@ -13640,10 +13724,10 @@
       <c r="O74" s="2">
         <v>2022</v>
       </c>
-      <c r="P74" s="3">
+      <c r="P74" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q74" s="3">
+      <c r="Q74" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R74" s="2"/>
@@ -13732,7 +13816,7 @@
       <c r="CK74" s="2"/>
       <c r="CL74" s="2"/>
     </row>
-    <row r="75" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B75" s="2" t="s">
         <v>883</v>
       </c>
@@ -13765,10 +13849,10 @@
       <c r="O75" s="2">
         <v>2019</v>
       </c>
-      <c r="P75" s="3">
+      <c r="P75" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q75" s="3">
+      <c r="Q75" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R75" s="2"/>
@@ -13855,7 +13939,7 @@
       <c r="CK75" s="2"/>
       <c r="CL75" s="2"/>
     </row>
-    <row r="76" spans="2:90" ht="404" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B76" s="2" t="s">
         <v>894</v>
       </c>
@@ -13890,10 +13974,10 @@
       <c r="O76" s="2">
         <v>2018</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R76" s="2"/>
@@ -13980,7 +14064,7 @@
       <c r="CK76" s="2"/>
       <c r="CL76" s="2"/>
     </row>
-    <row r="77" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
         <v>904</v>
       </c>
@@ -14015,10 +14099,10 @@
       <c r="O77" s="2">
         <v>2022</v>
       </c>
-      <c r="P77" s="3">
+      <c r="P77" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q77" s="3">
+      <c r="Q77" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R77" s="2"/>
@@ -14107,7 +14191,7 @@
       <c r="CK77" s="2"/>
       <c r="CL77" s="2"/>
     </row>
-    <row r="78" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B78" s="2" t="s">
         <v>914</v>
       </c>
@@ -14142,10 +14226,10 @@
       <c r="O78" s="2">
         <v>2023</v>
       </c>
-      <c r="P78" s="3">
+      <c r="P78" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q78" s="3">
+      <c r="Q78" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R78" s="2"/>
@@ -14230,7 +14314,7 @@
       <c r="CK78" s="2"/>
       <c r="CL78" s="2"/>
     </row>
-    <row r="79" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B79" s="2" t="s">
         <v>924</v>
       </c>
@@ -14265,10 +14349,10 @@
       <c r="O79" s="2">
         <v>2017</v>
       </c>
-      <c r="P79" s="3">
+      <c r="P79" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q79" s="3">
+      <c r="Q79" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R79" s="2"/>
@@ -14353,7 +14437,7 @@
       <c r="CK79" s="2"/>
       <c r="CL79" s="2"/>
     </row>
-    <row r="80" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
         <v>935</v>
       </c>
@@ -14388,10 +14472,10 @@
       <c r="O80" s="2">
         <v>2016</v>
       </c>
-      <c r="P80" s="3">
+      <c r="P80" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q80" s="3">
+      <c r="Q80" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R80" s="2"/>
@@ -14480,7 +14564,7 @@
       <c r="CK80" s="2"/>
       <c r="CL80" s="2"/>
     </row>
-    <row r="81" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B81" s="2" t="s">
         <v>947</v>
       </c>
@@ -14515,10 +14599,10 @@
       <c r="O81" s="2">
         <v>2020</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P81" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R81" s="2"/>
@@ -14607,7 +14691,7 @@
       <c r="CK81" s="2"/>
       <c r="CL81" s="2"/>
     </row>
-    <row r="82" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B82" s="2" t="s">
         <v>959</v>
       </c>
@@ -14642,10 +14726,10 @@
       <c r="O82" s="2">
         <v>2019</v>
       </c>
-      <c r="P82" s="3">
+      <c r="P82" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q82" s="3">
+      <c r="Q82" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R82" s="2"/>
@@ -14734,7 +14818,7 @@
       <c r="CK82" s="2"/>
       <c r="CL82" s="2"/>
     </row>
-    <row r="83" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B83" s="2" t="s">
         <v>971</v>
       </c>
@@ -14769,10 +14853,10 @@
       <c r="O83" s="2">
         <v>2023</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R83" s="2"/>
@@ -14861,7 +14945,7 @@
       <c r="CK83" s="2"/>
       <c r="CL83" s="2"/>
     </row>
-    <row r="84" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B84" s="2" t="s">
         <v>983</v>
       </c>
@@ -14896,10 +14980,10 @@
       <c r="O84" s="2">
         <v>2021</v>
       </c>
-      <c r="P84" s="3">
+      <c r="P84" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q84" s="3">
+      <c r="Q84" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R84" s="2"/>
@@ -14988,7 +15072,7 @@
       <c r="CK84" s="2"/>
       <c r="CL84" s="2"/>
     </row>
-    <row r="85" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B85" s="2" t="s">
         <v>995</v>
       </c>
@@ -15023,10 +15107,10 @@
       <c r="O85" s="2">
         <v>2008</v>
       </c>
-      <c r="P85" s="3">
+      <c r="P85" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q85" s="3">
+      <c r="Q85" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R85" s="2"/>
@@ -15115,7 +15199,7 @@
       <c r="CK85" s="2"/>
       <c r="CL85" s="2"/>
     </row>
-    <row r="86" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B86" s="2" t="s">
         <v>1007</v>
       </c>
@@ -15150,10 +15234,10 @@
       <c r="O86" s="2">
         <v>2022</v>
       </c>
-      <c r="P86" s="3">
+      <c r="P86" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q86" s="3">
+      <c r="Q86" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R86" s="2"/>
@@ -15240,7 +15324,7 @@
       <c r="CK86" s="2"/>
       <c r="CL86" s="2"/>
     </row>
-    <row r="87" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B87" s="2" t="s">
         <v>1017</v>
       </c>
@@ -15275,10 +15359,10 @@
       <c r="O87" s="2">
         <v>2022</v>
       </c>
-      <c r="P87" s="3">
+      <c r="P87" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q87" s="3">
+      <c r="Q87" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R87" s="2"/>
@@ -15363,7 +15447,7 @@
       <c r="CK87" s="2"/>
       <c r="CL87" s="2"/>
     </row>
-    <row r="88" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B88" s="2" t="s">
         <v>1027</v>
       </c>
@@ -15398,10 +15482,10 @@
       <c r="O88" s="2">
         <v>2006</v>
       </c>
-      <c r="P88" s="3">
+      <c r="P88" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q88" s="3">
+      <c r="Q88" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R88" s="2"/>
@@ -15490,7 +15574,7 @@
       <c r="CK88" s="2"/>
       <c r="CL88" s="2"/>
     </row>
-    <row r="89" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
         <v>1037</v>
       </c>
@@ -15525,10 +15609,10 @@
       <c r="O89" s="2">
         <v>2022</v>
       </c>
-      <c r="P89" s="3">
+      <c r="P89" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R89" s="2"/>
@@ -15615,7 +15699,7 @@
       <c r="CK89" s="2"/>
       <c r="CL89" s="2"/>
     </row>
-    <row r="90" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B90" s="2" t="s">
         <v>1047</v>
       </c>
@@ -15648,10 +15732,10 @@
       <c r="O90" s="2">
         <v>2019</v>
       </c>
-      <c r="P90" s="3">
+      <c r="P90" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q90" s="3">
+      <c r="Q90" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R90" s="2"/>
@@ -15738,7 +15822,7 @@
       <c r="CK90" s="2"/>
       <c r="CL90" s="2"/>
     </row>
-    <row r="91" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B91" s="2" t="s">
         <v>1057</v>
       </c>
@@ -15773,10 +15857,10 @@
       <c r="O91" s="2">
         <v>2023</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R91" s="2"/>
@@ -15865,7 +15949,7 @@
       <c r="CK91" s="2"/>
       <c r="CL91" s="2"/>
     </row>
-    <row r="92" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B92" s="2" t="s">
         <v>1067</v>
       </c>
@@ -15900,10 +15984,10 @@
       <c r="O92" s="2">
         <v>2023</v>
       </c>
-      <c r="P92" s="3">
+      <c r="P92" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q92" s="3">
+      <c r="Q92" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R92" s="2"/>
@@ -15990,7 +16074,7 @@
       <c r="CK92" s="2"/>
       <c r="CL92" s="2"/>
     </row>
-    <row r="93" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B93" s="2" t="s">
         <v>1077</v>
       </c>
@@ -16025,10 +16109,10 @@
       <c r="O93" s="2">
         <v>2022</v>
       </c>
-      <c r="P93" s="3">
+      <c r="P93" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q93" s="3">
+      <c r="Q93" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R93" s="2"/>
@@ -16117,7 +16201,7 @@
       <c r="CK93" s="2"/>
       <c r="CL93" s="2"/>
     </row>
-    <row r="94" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B94" s="2" t="s">
         <v>1088</v>
       </c>
@@ -16152,10 +16236,10 @@
       <c r="O94" s="2">
         <v>2022</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P94" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R94" s="2"/>
@@ -16244,7 +16328,7 @@
       <c r="CK94" s="2"/>
       <c r="CL94" s="2"/>
     </row>
-    <row r="95" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B95" s="2" t="s">
         <v>1098</v>
       </c>
@@ -16279,10 +16363,10 @@
       <c r="O95" s="2">
         <v>2022</v>
       </c>
-      <c r="P95" s="3">
+      <c r="P95" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q95" s="3">
+      <c r="Q95" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R95" s="2"/>
@@ -16369,7 +16453,7 @@
       <c r="CK95" s="2"/>
       <c r="CL95" s="2"/>
     </row>
-    <row r="96" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B96" s="2" t="s">
         <v>1106</v>
       </c>
@@ -16404,10 +16488,10 @@
       <c r="O96" s="2">
         <v>2022</v>
       </c>
-      <c r="P96" s="3">
+      <c r="P96" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="Q96" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R96" s="2"/>
@@ -16496,7 +16580,7 @@
       <c r="CK96" s="2"/>
       <c r="CL96" s="2"/>
     </row>
-    <row r="97" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B97" s="2" t="s">
         <v>1117</v>
       </c>
@@ -16531,10 +16615,10 @@
       <c r="O97" s="2">
         <v>2021</v>
       </c>
-      <c r="P97" s="3">
+      <c r="P97" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q97" s="3">
+      <c r="Q97" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R97" s="2"/>
@@ -16619,7 +16703,7 @@
       <c r="CK97" s="2"/>
       <c r="CL97" s="2"/>
     </row>
-    <row r="98" spans="2:90" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B98" s="2" t="s">
         <v>1128</v>
       </c>
@@ -16654,10 +16738,10 @@
       <c r="O98" s="2">
         <v>2015</v>
       </c>
-      <c r="P98" s="3">
+      <c r="P98" s="4">
         <v>45218.528402777774</v>
       </c>
-      <c r="Q98" s="3">
+      <c r="Q98" s="4">
         <v>45218.528402777774</v>
       </c>
       <c r="R98" s="2"/>
@@ -16748,5 +16832,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/xlsx/acm-code_clone|detection-abstract.xlsx
+++ b/xlsx/acm-code_clone|detection-abstract.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flicker_soul/Documents/Developer/COMP_RESEARCH/quantitative_assessment/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8190029C-D8BF-9E4C-B9DA-0DB69E8D0662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4EBCB8-F4A7-0342-830B-01C10B40A049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4284,8 +4284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CL98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -7410,6 +7410,9 @@
       <c r="CL23" s="2"/>
     </row>
     <row r="24" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
       <c r="B24" s="2" t="s">
         <v>345</v>
       </c>
@@ -7535,6 +7538,9 @@
       <c r="CL24" s="2"/>
     </row>
     <row r="25" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
       <c r="B25" s="2" t="s">
         <v>356</v>
       </c>
@@ -7662,6 +7668,9 @@
       <c r="CL25" s="2"/>
     </row>
     <row r="26" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>3</v>
+      </c>
       <c r="B26" s="2" t="s">
         <v>366</v>
       </c>
@@ -7783,6 +7792,9 @@
       <c r="CL26" s="2"/>
     </row>
     <row r="27" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>5</v>
+      </c>
       <c r="B27" s="2" t="s">
         <v>376</v>
       </c>
@@ -7910,6 +7922,9 @@
       <c r="CL27" s="2"/>
     </row>
     <row r="28" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>3</v>
+      </c>
       <c r="B28" s="2" t="s">
         <v>387</v>
       </c>
@@ -8037,6 +8052,9 @@
       <c r="CL28" s="2"/>
     </row>
     <row r="29" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>3</v>
+      </c>
       <c r="B29" s="2" t="s">
         <v>397</v>
       </c>
@@ -8164,6 +8182,9 @@
       <c r="CL29" s="2"/>
     </row>
     <row r="30" spans="1:90" ht="400" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
       <c r="B30" s="2" t="s">
         <v>406</v>
       </c>
@@ -8291,6 +8312,9 @@
       <c r="CL30" s="2"/>
     </row>
     <row r="31" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
       <c r="B31" s="2" t="s">
         <v>417</v>
       </c>
@@ -8417,7 +8441,10 @@
       <c r="CK31" s="2"/>
       <c r="CL31" s="2"/>
     </row>
-    <row r="32" spans="1:90" ht="400" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:90" ht="350" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
       <c r="B32" s="2" t="s">
         <v>429</v>
       </c>
@@ -8542,7 +8569,7 @@
       <c r="CK32" s="2"/>
       <c r="CL32" s="2"/>
     </row>
-    <row r="33" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>440</v>
       </c>
@@ -8669,7 +8696,10 @@
       <c r="CK33" s="2"/>
       <c r="CL33" s="2"/>
     </row>
-    <row r="34" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
       <c r="B34" s="2" t="s">
         <v>452</v>
       </c>
@@ -8794,7 +8824,7 @@
       <c r="CK34" s="2"/>
       <c r="CL34" s="2"/>
     </row>
-    <row r="35" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>463</v>
       </c>
@@ -8917,7 +8947,10 @@
       <c r="CK35" s="2"/>
       <c r="CL35" s="2"/>
     </row>
-    <row r="36" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
       <c r="B36" s="2" t="s">
         <v>470</v>
       </c>
@@ -9036,7 +9069,10 @@
       <c r="CK36" s="2"/>
       <c r="CL36" s="2"/>
     </row>
-    <row r="37" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>3</v>
+      </c>
       <c r="B37" s="2" t="s">
         <v>480</v>
       </c>
@@ -9161,7 +9197,10 @@
       <c r="CK37" s="2"/>
       <c r="CL37" s="2"/>
     </row>
-    <row r="38" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
       <c r="B38" s="2" t="s">
         <v>491</v>
       </c>
@@ -9288,7 +9327,10 @@
       <c r="CK38" s="2"/>
       <c r="CL38" s="2"/>
     </row>
-    <row r="39" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:90" ht="350" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>3</v>
+      </c>
       <c r="B39" s="2" t="s">
         <v>501</v>
       </c>
@@ -9415,7 +9457,10 @@
       <c r="CK39" s="2"/>
       <c r="CL39" s="2"/>
     </row>
-    <row r="40" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
       <c r="B40" s="2" t="s">
         <v>512</v>
       </c>
@@ -9542,7 +9587,7 @@
       <c r="CK40" s="2"/>
       <c r="CL40" s="2"/>
     </row>
-    <row r="41" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>522</v>
       </c>
@@ -9669,7 +9714,10 @@
       <c r="CK41" s="2"/>
       <c r="CL41" s="2"/>
     </row>
-    <row r="42" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
       <c r="B42" s="2" t="s">
         <v>533</v>
       </c>
@@ -9796,7 +9844,10 @@
       <c r="CK42" s="2"/>
       <c r="CL42" s="2"/>
     </row>
-    <row r="43" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>3</v>
+      </c>
       <c r="B43" s="2" t="s">
         <v>545</v>
       </c>
@@ -9921,7 +9972,10 @@
       <c r="CK43" s="2"/>
       <c r="CL43" s="2"/>
     </row>
-    <row r="44" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>2</v>
+      </c>
       <c r="B44" s="2" t="s">
         <v>557</v>
       </c>
@@ -10044,7 +10098,10 @@
       <c r="CK44" s="2"/>
       <c r="CL44" s="2"/>
     </row>
-    <row r="45" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
       <c r="B45" s="2" t="s">
         <v>568</v>
       </c>
@@ -10169,7 +10226,10 @@
       <c r="CK45" s="2"/>
       <c r="CL45" s="2"/>
     </row>
-    <row r="46" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
       <c r="B46" s="2" t="s">
         <v>580</v>
       </c>
@@ -10296,7 +10356,10 @@
       <c r="CK46" s="2"/>
       <c r="CL46" s="2"/>
     </row>
-    <row r="47" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
       <c r="B47" s="2" t="s">
         <v>590</v>
       </c>
@@ -10419,7 +10482,10 @@
       <c r="CK47" s="2"/>
       <c r="CL47" s="2"/>
     </row>
-    <row r="48" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>3</v>
+      </c>
       <c r="B48" s="2" t="s">
         <v>600</v>
       </c>
@@ -10546,7 +10612,10 @@
       <c r="CK48" s="2"/>
       <c r="CL48" s="2"/>
     </row>
-    <row r="49" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>4</v>
+      </c>
       <c r="B49" s="2" t="s">
         <v>610</v>
       </c>
@@ -10673,7 +10742,10 @@
       <c r="CK49" s="2"/>
       <c r="CL49" s="2"/>
     </row>
-    <row r="50" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>3</v>
+      </c>
       <c r="B50" s="2" t="s">
         <v>619</v>
       </c>
@@ -10800,7 +10872,10 @@
       <c r="CK50" s="2"/>
       <c r="CL50" s="2"/>
     </row>
-    <row r="51" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>3</v>
+      </c>
       <c r="B51" s="2" t="s">
         <v>629</v>
       </c>
@@ -10927,7 +11002,10 @@
       <c r="CK51" s="2"/>
       <c r="CL51" s="2"/>
     </row>
-    <row r="52" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
       <c r="B52" s="2" t="s">
         <v>641</v>
       </c>
@@ -11054,7 +11132,10 @@
       <c r="CK52" s="2"/>
       <c r="CL52" s="2"/>
     </row>
-    <row r="53" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
       <c r="B53" s="2" t="s">
         <v>653</v>
       </c>
@@ -11181,7 +11262,10 @@
       <c r="CK53" s="2"/>
       <c r="CL53" s="2"/>
     </row>
-    <row r="54" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>3</v>
+      </c>
       <c r="B54" s="2" t="s">
         <v>665</v>
       </c>
@@ -11304,7 +11388,10 @@
       <c r="CK54" s="2"/>
       <c r="CL54" s="2"/>
     </row>
-    <row r="55" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>3</v>
+      </c>
       <c r="B55" s="2" t="s">
         <v>675</v>
       </c>
@@ -11427,7 +11514,10 @@
       <c r="CK55" s="2"/>
       <c r="CL55" s="2"/>
     </row>
-    <row r="56" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
       <c r="B56" s="2" t="s">
         <v>686</v>
       </c>
@@ -11554,7 +11644,10 @@
       <c r="CK56" s="2"/>
       <c r="CL56" s="2"/>
     </row>
-    <row r="57" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>3</v>
+      </c>
       <c r="B57" s="2" t="s">
         <v>698</v>
       </c>
@@ -11679,7 +11772,10 @@
       <c r="CK57" s="2"/>
       <c r="CL57" s="2"/>
     </row>
-    <row r="58" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
       <c r="B58" s="2" t="s">
         <v>707</v>
       </c>
@@ -11802,7 +11898,10 @@
       <c r="CK58" s="2"/>
       <c r="CL58" s="2"/>
     </row>
-    <row r="59" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
       <c r="B59" s="2" t="s">
         <v>716</v>
       </c>
@@ -11929,7 +12028,10 @@
       <c r="CK59" s="2"/>
       <c r="CL59" s="2"/>
     </row>
-    <row r="60" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
       <c r="B60" s="2" t="s">
         <v>726</v>
       </c>
@@ -12052,7 +12154,10 @@
       <c r="CK60" s="2"/>
       <c r="CL60" s="2"/>
     </row>
-    <row r="61" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>3</v>
+      </c>
       <c r="B61" s="2" t="s">
         <v>738</v>
       </c>
@@ -12179,7 +12284,10 @@
       <c r="CK61" s="2"/>
       <c r="CL61" s="2"/>
     </row>
-    <row r="62" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
       <c r="B62" s="2" t="s">
         <v>750</v>
       </c>
@@ -12306,7 +12414,10 @@
       <c r="CK62" s="2"/>
       <c r="CL62" s="2"/>
     </row>
-    <row r="63" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
       <c r="B63" s="2" t="s">
         <v>762</v>
       </c>
@@ -12433,7 +12544,10 @@
       <c r="CK63" s="2"/>
       <c r="CL63" s="2"/>
     </row>
-    <row r="64" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>2</v>
+      </c>
       <c r="B64" s="2" t="s">
         <v>774</v>
       </c>
@@ -12560,7 +12674,10 @@
       <c r="CK64" s="2"/>
       <c r="CL64" s="2"/>
     </row>
-    <row r="65" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>3</v>
+      </c>
       <c r="B65" s="2" t="s">
         <v>785</v>
       </c>
@@ -12683,7 +12800,10 @@
       <c r="CK65" s="2"/>
       <c r="CL65" s="2"/>
     </row>
-    <row r="66" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>1</v>
+      </c>
       <c r="B66" s="2" t="s">
         <v>797</v>
       </c>
@@ -12810,7 +12930,7 @@
       <c r="CK66" s="2"/>
       <c r="CL66" s="2"/>
     </row>
-    <row r="67" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>809</v>
       </c>
@@ -12937,7 +13057,10 @@
       <c r="CK67" s="2"/>
       <c r="CL67" s="2"/>
     </row>
-    <row r="68" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>1</v>
+      </c>
       <c r="B68" s="2" t="s">
         <v>820</v>
       </c>
@@ -13064,7 +13187,10 @@
       <c r="CK68" s="2"/>
       <c r="CL68" s="2"/>
     </row>
-    <row r="69" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>1</v>
+      </c>
       <c r="B69" s="2" t="s">
         <v>830</v>
       </c>
@@ -13191,7 +13317,10 @@
       <c r="CK69" s="2"/>
       <c r="CL69" s="2"/>
     </row>
-    <row r="70" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>1</v>
+      </c>
       <c r="B70" s="2" t="s">
         <v>840</v>
       </c>
@@ -13316,7 +13445,10 @@
       <c r="CK70" s="2"/>
       <c r="CL70" s="2"/>
     </row>
-    <row r="71" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>1</v>
+      </c>
       <c r="B71" s="2" t="s">
         <v>849</v>
       </c>
@@ -13439,7 +13571,10 @@
       <c r="CK71" s="2"/>
       <c r="CL71" s="2"/>
     </row>
-    <row r="72" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>2</v>
+      </c>
       <c r="B72" s="2" t="s">
         <v>857</v>
       </c>
@@ -13566,7 +13701,10 @@
       <c r="CK72" s="2"/>
       <c r="CL72" s="2"/>
     </row>
-    <row r="73" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>1</v>
+      </c>
       <c r="B73" s="2" t="s">
         <v>865</v>
       </c>
@@ -13689,7 +13827,10 @@
       <c r="CK73" s="2"/>
       <c r="CL73" s="2"/>
     </row>
-    <row r="74" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>1</v>
+      </c>
       <c r="B74" s="2" t="s">
         <v>873</v>
       </c>
@@ -13816,7 +13957,10 @@
       <c r="CK74" s="2"/>
       <c r="CL74" s="2"/>
     </row>
-    <row r="75" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>2</v>
+      </c>
       <c r="B75" s="2" t="s">
         <v>883</v>
       </c>
@@ -13939,7 +14083,10 @@
       <c r="CK75" s="2"/>
       <c r="CL75" s="2"/>
     </row>
-    <row r="76" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>1</v>
+      </c>
       <c r="B76" s="2" t="s">
         <v>894</v>
       </c>
@@ -14064,7 +14211,7 @@
       <c r="CK76" s="2"/>
       <c r="CL76" s="2"/>
     </row>
-    <row r="77" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
         <v>904</v>
       </c>
@@ -14191,7 +14338,10 @@
       <c r="CK77" s="2"/>
       <c r="CL77" s="2"/>
     </row>
-    <row r="78" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>3</v>
+      </c>
       <c r="B78" s="2" t="s">
         <v>914</v>
       </c>
@@ -14314,7 +14464,10 @@
       <c r="CK78" s="2"/>
       <c r="CL78" s="2"/>
     </row>
-    <row r="79" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>1</v>
+      </c>
       <c r="B79" s="2" t="s">
         <v>924</v>
       </c>
@@ -14437,7 +14590,10 @@
       <c r="CK79" s="2"/>
       <c r="CL79" s="2"/>
     </row>
-    <row r="80" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>1</v>
+      </c>
       <c r="B80" s="2" t="s">
         <v>935</v>
       </c>
@@ -14564,7 +14720,10 @@
       <c r="CK80" s="2"/>
       <c r="CL80" s="2"/>
     </row>
-    <row r="81" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>1</v>
+      </c>
       <c r="B81" s="2" t="s">
         <v>947</v>
       </c>
@@ -14691,7 +14850,10 @@
       <c r="CK81" s="2"/>
       <c r="CL81" s="2"/>
     </row>
-    <row r="82" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>1</v>
+      </c>
       <c r="B82" s="2" t="s">
         <v>959</v>
       </c>
@@ -14818,7 +14980,10 @@
       <c r="CK82" s="2"/>
       <c r="CL82" s="2"/>
     </row>
-    <row r="83" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>3</v>
+      </c>
       <c r="B83" s="2" t="s">
         <v>971</v>
       </c>
@@ -14945,7 +15110,10 @@
       <c r="CK83" s="2"/>
       <c r="CL83" s="2"/>
     </row>
-    <row r="84" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>1</v>
+      </c>
       <c r="B84" s="2" t="s">
         <v>983</v>
       </c>
@@ -15072,7 +15240,10 @@
       <c r="CK84" s="2"/>
       <c r="CL84" s="2"/>
     </row>
-    <row r="85" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>1</v>
+      </c>
       <c r="B85" s="2" t="s">
         <v>995</v>
       </c>
@@ -15199,7 +15370,10 @@
       <c r="CK85" s="2"/>
       <c r="CL85" s="2"/>
     </row>
-    <row r="86" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>3</v>
+      </c>
       <c r="B86" s="2" t="s">
         <v>1007</v>
       </c>
@@ -15324,7 +15498,10 @@
       <c r="CK86" s="2"/>
       <c r="CL86" s="2"/>
     </row>
-    <row r="87" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>2</v>
+      </c>
       <c r="B87" s="2" t="s">
         <v>1017</v>
       </c>
@@ -15447,7 +15624,10 @@
       <c r="CK87" s="2"/>
       <c r="CL87" s="2"/>
     </row>
-    <row r="88" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>1</v>
+      </c>
       <c r="B88" s="2" t="s">
         <v>1027</v>
       </c>
@@ -15574,7 +15754,10 @@
       <c r="CK88" s="2"/>
       <c r="CL88" s="2"/>
     </row>
-    <row r="89" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>1</v>
+      </c>
       <c r="B89" s="2" t="s">
         <v>1037</v>
       </c>
@@ -15699,7 +15882,10 @@
       <c r="CK89" s="2"/>
       <c r="CL89" s="2"/>
     </row>
-    <row r="90" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>1</v>
+      </c>
       <c r="B90" s="2" t="s">
         <v>1047</v>
       </c>
@@ -15822,7 +16008,10 @@
       <c r="CK90" s="2"/>
       <c r="CL90" s="2"/>
     </row>
-    <row r="91" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>2</v>
+      </c>
       <c r="B91" s="2" t="s">
         <v>1057</v>
       </c>
@@ -15949,7 +16138,10 @@
       <c r="CK91" s="2"/>
       <c r="CL91" s="2"/>
     </row>
-    <row r="92" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>1</v>
+      </c>
       <c r="B92" s="2" t="s">
         <v>1067</v>
       </c>
@@ -16074,7 +16266,7 @@
       <c r="CK92" s="2"/>
       <c r="CL92" s="2"/>
     </row>
-    <row r="93" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B93" s="2" t="s">
         <v>1077</v>
       </c>
@@ -16201,7 +16393,10 @@
       <c r="CK93" s="2"/>
       <c r="CL93" s="2"/>
     </row>
-    <row r="94" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>3</v>
+      </c>
       <c r="B94" s="2" t="s">
         <v>1088</v>
       </c>
@@ -16328,7 +16523,10 @@
       <c r="CK94" s="2"/>
       <c r="CL94" s="2"/>
     </row>
-    <row r="95" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>2</v>
+      </c>
       <c r="B95" s="2" t="s">
         <v>1098</v>
       </c>
@@ -16453,7 +16651,10 @@
       <c r="CK95" s="2"/>
       <c r="CL95" s="2"/>
     </row>
-    <row r="96" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>2</v>
+      </c>
       <c r="B96" s="2" t="s">
         <v>1106</v>
       </c>
@@ -16580,7 +16781,10 @@
       <c r="CK96" s="2"/>
       <c r="CL96" s="2"/>
     </row>
-    <row r="97" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>2</v>
+      </c>
       <c r="B97" s="2" t="s">
         <v>1117</v>
       </c>
@@ -16703,7 +16907,10 @@
       <c r="CK97" s="2"/>
       <c r="CL97" s="2"/>
     </row>
-    <row r="98" spans="2:90" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:90" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>1</v>
+      </c>
       <c r="B98" s="2" t="s">
         <v>1128</v>
       </c>
